--- a/Files/Result.xlsx
+++ b/Files/Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\ResultGenerator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHubRepos\ReportGenPdf\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6954F1A-33E0-46A9-8557-9287E9644E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB11C17-B025-4991-A886-EC6039E934DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SchoolDetails" sheetId="21" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Rohan Negi</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -274,6 +271,9 @@
   </si>
   <si>
     <t>Sdetails</t>
+  </si>
+  <si>
+    <t>OVERALL</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80899643-C16B-4FC6-AB83-27E94FD84C98}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -621,42 +621,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +670,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="J2" sqref="J2:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +698,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -706,26 +706,26 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>15.6</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>5.2</v>
       </c>
       <c r="D2">
-        <v>87</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E2">
-        <v>78</v>
+        <v>15.6</v>
       </c>
       <c r="F2">
-        <v>96</v>
+        <v>19.2</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>15.6</v>
       </c>
       <c r="H2">
         <f>SUM(B2:G2)</f>
-        <v>443</v>
+        <v>88.6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -733,26 +733,26 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>14.8</v>
       </c>
       <c r="C3">
-        <v>74</v>
+        <v>14.8</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>9.4</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>87</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>5.2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H6" si="0">SUM(B3:G3)</f>
-        <v>353</v>
+        <v>70.600000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -760,26 +760,26 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>4.8</v>
       </c>
       <c r="E4">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>2.8</v>
       </c>
       <c r="G4">
-        <v>74</v>
+        <v>14.8</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -787,26 +787,26 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>48</v>
+        <v>9.6</v>
       </c>
       <c r="G5">
-        <v>72</v>
+        <v>14.4</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>271</v>
+        <v>54.199999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -814,30 +814,31 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E6">
-        <v>51</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>5.2</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>52.599999999999994</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -846,7 +847,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +875,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -882,26 +883,26 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>10.4</v>
       </c>
       <c r="D2">
-        <v>87</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="E2">
-        <v>78</v>
+        <v>31.2</v>
       </c>
       <c r="F2">
-        <v>96</v>
+        <v>38.4</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>31.2</v>
       </c>
       <c r="H2">
         <f>SUM(B2:G2)</f>
-        <v>450</v>
+        <v>179.99999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -909,26 +910,26 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>29.6</v>
       </c>
       <c r="C3">
-        <v>74</v>
+        <v>29.6</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>18.8</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>87</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>10.4</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H6" si="0">SUM(B3:G3)</f>
-        <v>353</v>
+        <v>141.20000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -936,26 +937,26 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>4.8</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>6.8</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>9.6</v>
       </c>
       <c r="E4">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>5.6</v>
       </c>
       <c r="G4">
-        <v>74</v>
+        <v>29.6</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>82.4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -963,26 +964,26 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>14.4</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>7.6</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>6.8</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>48</v>
+        <v>19.2</v>
       </c>
       <c r="G5">
-        <v>72</v>
+        <v>28.8</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -990,26 +991,26 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E6">
-        <v>51</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>10.4</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>105.19999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1023,7 +1024,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1052,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1060,31 +1061,31 @@
       </c>
       <c r="B2">
         <f>'UT4'!B2+'UT5'!B2+'UT6'!B2+Y!B2</f>
-        <v>319</v>
+        <v>80.8</v>
       </c>
       <c r="C2">
         <f>'UT4'!C2+'UT5'!C2+'UT6'!C2+Y!C2</f>
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <f>'UT4'!D2+'UT5'!D2+'UT6'!D2+Y!D2</f>
-        <v>348</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <f>'UT4'!E2+'UT5'!E2+'UT6'!E2+Y!E2</f>
-        <v>312</v>
+        <v>78</v>
       </c>
       <c r="F2">
         <f>'UT4'!F2+'UT5'!F2+'UT6'!F2+Y!F2</f>
-        <v>384</v>
+        <v>96</v>
       </c>
       <c r="G2">
         <f>'UT4'!G2+'UT5'!G2+'UT6'!G2+Y!G2</f>
-        <v>312</v>
+        <v>78</v>
       </c>
       <c r="H2">
         <f>SUM(B2:G2)</f>
-        <v>1779</v>
+        <v>445.8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1093,31 +1094,31 @@
       </c>
       <c r="B3">
         <f>'UT4'!B3+'UT5'!B3+'UT6'!B3+Y!B3</f>
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="C3">
         <f>'UT4'!C3+'UT5'!C3+'UT6'!C3+Y!C3</f>
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="D3">
         <f>'UT4'!D3+'UT5'!D3+'UT6'!D3+Y!D3</f>
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <f>'UT4'!E3+'UT5'!E3+'UT6'!E3+Y!E3</f>
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <f>'UT4'!F3+'UT5'!F3+'UT6'!F3+Y!F3</f>
-        <v>348</v>
+        <v>87</v>
       </c>
       <c r="G3">
         <f>'UT4'!G3+'UT5'!G3+'UT6'!G3+Y!G3</f>
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H6" si="0">SUM(B3:G3)</f>
-        <v>1412</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1126,31 +1127,31 @@
       </c>
       <c r="B4">
         <f>'UT4'!B4+'UT5'!B4+'UT6'!B4+Y!B4</f>
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <f>'UT4'!C4+'UT5'!C4+'UT6'!C4+Y!C4</f>
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <f>'UT4'!D4+'UT5'!D4+'UT6'!D4+Y!D4</f>
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <f>'UT4'!E4+'UT5'!E4+'UT6'!E4+Y!E4</f>
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <f>'UT4'!F4+'UT5'!F4+'UT6'!F4+Y!F4</f>
-        <v>56</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="G4">
         <f>'UT4'!G4+'UT5'!G4+'UT6'!G4+Y!G4</f>
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>824</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1159,31 +1160,31 @@
       </c>
       <c r="B5">
         <f>'UT4'!B5+'UT5'!B5+'UT6'!B5+Y!B5</f>
-        <v>276</v>
+        <v>62.4</v>
       </c>
       <c r="C5">
         <f>'UT4'!C5+'UT5'!C5+'UT6'!C5+Y!C5</f>
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <f>'UT4'!D5+'UT5'!D5+'UT6'!D5+Y!D5</f>
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <f>'UT4'!E5+'UT5'!E5+'UT6'!E5+Y!E5</f>
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <f>'UT4'!F5+'UT5'!F5+'UT6'!F5+Y!F5</f>
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="G5">
         <f>'UT4'!G5+'UT5'!G5+'UT6'!G5+Y!G5</f>
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>1040</v>
+        <v>253.4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1192,31 +1193,31 @@
       </c>
       <c r="B6">
         <f>'UT4'!B6+'UT5'!B6+'UT6'!B6+Y!B6</f>
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <f>'UT4'!C6+'UT5'!C6+'UT6'!C6+Y!C6</f>
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <f>'UT4'!D6+'UT5'!D6+'UT6'!D6+Y!D6</f>
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <f>'UT4'!E6+'UT5'!E6+'UT6'!E6+Y!E6</f>
-        <v>204</v>
+        <v>51</v>
       </c>
       <c r="F6">
         <f>'UT4'!F6+'UT5'!F6+'UT6'!F6+Y!F6</f>
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <f>'UT4'!G6+'UT5'!G6+'UT6'!G6+Y!G6</f>
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>1052</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -1229,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3BB61B-B886-47F7-BB1D-397645E0FD09}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1259,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1266,32 +1267,32 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>'T1'!B2+'T2'!B2</f>
-        <v>590</v>
+        <f>('T1'!B2+'T2'!B2)/2</f>
+        <v>75.3</v>
       </c>
       <c r="C2">
-        <f>'T1'!C2+'T2'!C2</f>
-        <v>263</v>
+        <f>('T1'!C2+'T2'!C2)/2</f>
+        <v>31.5</v>
       </c>
       <c r="D2">
-        <f>'T1'!D2+'T2'!D2</f>
-        <v>623</v>
+        <f>('T1'!D2+'T2'!D2)/2</f>
+        <v>79.7</v>
       </c>
       <c r="E2">
-        <f>'T1'!E2+'T2'!E2</f>
-        <v>585</v>
+        <f>('T1'!E2+'T2'!E2)/2</f>
+        <v>74.099999999999994</v>
       </c>
       <c r="F2">
-        <f>'T1'!F2+'T2'!F2</f>
-        <v>692</v>
+        <f>('T1'!F2+'T2'!F2)/2</f>
+        <v>88.4</v>
       </c>
       <c r="G2">
-        <f>'T1'!G2+'T2'!G2</f>
-        <v>541</v>
+        <f>('T1'!G2+'T2'!G2)/2</f>
+        <v>69.699999999999989</v>
       </c>
       <c r="H2">
         <f>SUM(B2:G2)</f>
-        <v>3294</v>
+        <v>418.7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1299,32 +1300,32 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>'T1'!B3+'T2'!B3</f>
-        <v>592</v>
+        <f>('T1'!B3+'T2'!B3)/2</f>
+        <v>74</v>
       </c>
       <c r="C3">
-        <f>'T1'!C3+'T2'!C3</f>
-        <v>592</v>
+        <f>('T1'!C3+'T2'!C3)/2</f>
+        <v>74</v>
       </c>
       <c r="D3">
-        <f>'T1'!D3+'T2'!D3</f>
-        <v>376</v>
+        <f>('T1'!D3+'T2'!D3)/2</f>
+        <v>47</v>
       </c>
       <c r="E3">
-        <f>'T1'!E3+'T2'!E3</f>
-        <v>360</v>
+        <f>('T1'!E3+'T2'!E3)/2</f>
+        <v>45</v>
       </c>
       <c r="F3">
-        <f>'T1'!F3+'T2'!F3</f>
-        <v>696</v>
+        <f>('T1'!F3+'T2'!F3)/2</f>
+        <v>87</v>
       </c>
       <c r="G3">
-        <f>'T1'!G3+'T2'!G3</f>
-        <v>208</v>
+        <f>('T1'!G3+'T2'!G3)/2</f>
+        <v>26</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H6" si="0">SUM(B3:G3)</f>
-        <v>2824</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1332,32 +1333,32 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f>'T1'!B4+'T2'!B4</f>
-        <v>96</v>
+        <f>('T1'!B4+'T2'!B4)/2</f>
+        <v>12</v>
       </c>
       <c r="C4">
-        <f>'T1'!C4+'T2'!C4</f>
-        <v>136</v>
+        <f>('T1'!C4+'T2'!C4)/2</f>
+        <v>17</v>
       </c>
       <c r="D4">
-        <f>'T1'!D4+'T2'!D4</f>
-        <v>192</v>
+        <f>('T1'!D4+'T2'!D4)/2</f>
+        <v>24</v>
       </c>
       <c r="E4">
-        <f>'T1'!E4+'T2'!E4</f>
-        <v>520</v>
+        <f>('T1'!E4+'T2'!E4)/2</f>
+        <v>65</v>
       </c>
       <c r="F4">
-        <f>'T1'!F4+'T2'!F4</f>
-        <v>112</v>
+        <f>('T1'!F4+'T2'!F4)/2</f>
+        <v>13.999999999999998</v>
       </c>
       <c r="G4">
-        <f>'T1'!G4+'T2'!G4</f>
-        <v>592</v>
+        <f>('T1'!G4+'T2'!G4)/2</f>
+        <v>74</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>1648</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1365,32 +1366,32 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f>'T1'!B5+'T2'!B5</f>
-        <v>596</v>
+        <f>('T1'!B5+'T2'!B5)/2</f>
+        <v>71.2</v>
       </c>
       <c r="C5">
-        <f>'T1'!C5+'T2'!C5</f>
-        <v>152</v>
+        <f>('T1'!C5+'T2'!C5)/2</f>
+        <v>19</v>
       </c>
       <c r="D5">
-        <f>'T1'!D5+'T2'!D5</f>
-        <v>136</v>
+        <f>('T1'!D5+'T2'!D5)/2</f>
+        <v>17</v>
       </c>
       <c r="E5">
-        <f>'T1'!E5+'T2'!E5</f>
-        <v>280</v>
+        <f>('T1'!E5+'T2'!E5)/2</f>
+        <v>35</v>
       </c>
       <c r="F5">
-        <f>'T1'!F5+'T2'!F5</f>
-        <v>384</v>
+        <f>('T1'!F5+'T2'!F5)/2</f>
+        <v>48</v>
       </c>
       <c r="G5">
-        <f>'T1'!G5+'T2'!G5</f>
-        <v>576</v>
+        <f>('T1'!G5+'T2'!G5)/2</f>
+        <v>72</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>2124</v>
+        <v>262.2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1398,32 +1399,32 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>'T1'!B6+'T2'!B6</f>
-        <v>368</v>
+        <f>('T1'!B6+'T2'!B6)/2</f>
+        <v>46</v>
       </c>
       <c r="C6">
-        <f>'T1'!C6+'T2'!C6</f>
-        <v>360</v>
+        <f>('T1'!C6+'T2'!C6)/2</f>
+        <v>45</v>
       </c>
       <c r="D6">
-        <f>'T1'!D6+'T2'!D6</f>
-        <v>368</v>
+        <f>('T1'!D6+'T2'!D6)/2</f>
+        <v>46</v>
       </c>
       <c r="E6">
-        <f>'T1'!E6+'T2'!E6</f>
-        <v>408</v>
+        <f>('T1'!E6+'T2'!E6)/2</f>
+        <v>51</v>
       </c>
       <c r="F6">
-        <f>'T1'!F6+'T2'!F6</f>
-        <v>208</v>
+        <f>('T1'!F6+'T2'!F6)/2</f>
+        <v>26</v>
       </c>
       <c r="G6">
-        <f>'T1'!G6+'T2'!G6</f>
-        <v>392</v>
+        <f>('T1'!G6+'T2'!G6)/2</f>
+        <v>49</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>2104</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -1437,7 +1438,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G6"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,7 +1466,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1473,25 +1474,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
         <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1499,25 +1500,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1525,25 +1526,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1551,25 +1552,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1577,25 +1578,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1609,7 +1610,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,7 +1638,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1661,6 +1662,9 @@
       </c>
       <c r="G2">
         <v>6</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1685,6 +1689,9 @@
       <c r="G3">
         <v>2</v>
       </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1708,6 +1715,9 @@
       <c r="G4">
         <v>3</v>
       </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1731,6 +1741,9 @@
       <c r="G5">
         <v>2</v>
       </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1754,9 +1767,13 @@
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1781,28 +1798,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1810,28 +1827,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1839,28 +1856,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1868,28 +1885,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1897,28 +1914,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1926,28 +1943,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1976,28 +1993,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2005,28 +2022,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2034,28 +2051,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2063,28 +2080,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2092,28 +2109,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2121,28 +2138,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2168,28 +2185,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2197,28 +2214,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2226,28 +2243,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2255,28 +2272,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2284,28 +2301,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2313,28 +2330,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2363,28 +2380,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2392,28 +2409,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2421,28 +2438,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2450,28 +2467,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2479,28 +2496,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2508,28 +2525,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2556,31 +2573,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2594,22 +2611,22 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2623,22 +2640,22 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2652,22 +2669,22 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2681,22 +2698,22 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2710,22 +2727,22 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2739,10 +2756,13 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2767,7 +2787,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2775,26 +2795,26 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>15.6</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>5.2</v>
       </c>
       <c r="D2">
-        <v>87</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E2">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>96</v>
+        <v>19.2</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>15.6</v>
       </c>
       <c r="H2">
         <f>SUM(B2:G2)</f>
-        <v>440</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2802,26 +2822,26 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>14.8</v>
       </c>
       <c r="C3">
-        <v>74</v>
+        <v>14.8</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>9.4</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>87</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>5.2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H6" si="0">SUM(B3:G3)</f>
-        <v>353</v>
+        <v>70.600000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2829,26 +2849,26 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>4.8</v>
       </c>
       <c r="E4">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>2.8</v>
       </c>
       <c r="G4">
-        <v>74</v>
+        <v>14.8</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2856,26 +2876,26 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>48</v>
+        <v>9.6</v>
       </c>
       <c r="G5">
-        <v>72</v>
+        <v>14.4</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>271</v>
+        <v>54.199999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2883,34 +2903,31 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E6">
-        <v>51</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>5.2</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>52.599999999999994</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="H2:H6" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2919,7 +2936,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2947,7 +2964,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2955,26 +2972,26 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>74</v>
+        <v>14.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>17.8</v>
       </c>
       <c r="D2">
-        <v>74</v>
+        <v>14.8</v>
       </c>
       <c r="E2">
-        <v>49</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F2">
-        <v>27</v>
+        <v>5.4</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H2">
         <f>SUM(B2:G2)</f>
-        <v>359</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2982,26 +2999,26 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>14.8</v>
       </c>
       <c r="C3">
-        <v>74</v>
+        <v>14.8</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>9.4</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>87</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>5.2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H6" si="0">SUM(B3:G3)</f>
-        <v>353</v>
+        <v>70.600000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3009,26 +3026,26 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>4.8</v>
       </c>
       <c r="E4">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>2.8</v>
       </c>
       <c r="G4">
-        <v>74</v>
+        <v>14.8</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3036,26 +3053,26 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>48</v>
+        <v>9.6</v>
       </c>
       <c r="G5">
-        <v>72</v>
+        <v>14.4</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>271</v>
+        <v>54.199999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3063,34 +3080,31 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E6">
-        <v>51</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>5.2</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>52.599999999999994</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="H2:H6" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3099,7 +3113,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3127,7 +3141,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3135,26 +3149,26 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>3.6</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>5.4</v>
       </c>
       <c r="E2">
-        <v>71</v>
+        <v>14.2</v>
       </c>
       <c r="F2">
-        <v>89</v>
+        <v>17.8</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>5.4</v>
       </c>
       <c r="H2">
         <f>SUM(B2:G2)</f>
-        <v>273</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3162,26 +3176,26 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>14.8</v>
       </c>
       <c r="C3">
-        <v>74</v>
+        <v>14.8</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>9.4</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>87</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>5.2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H6" si="0">SUM(B3:G3)</f>
-        <v>353</v>
+        <v>70.600000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3189,26 +3203,26 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>4.8</v>
       </c>
       <c r="E4">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>2.8</v>
       </c>
       <c r="G4">
-        <v>74</v>
+        <v>14.8</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3216,26 +3230,26 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>48</v>
+        <v>9.6</v>
       </c>
       <c r="G5">
-        <v>72</v>
+        <v>14.4</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>271</v>
+        <v>54.199999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3243,30 +3257,31 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E6">
-        <v>51</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>5.2</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>52.599999999999994</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3275,7 +3290,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3303,7 +3318,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3311,26 +3326,26 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>31.2</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>10.4</v>
       </c>
       <c r="D2">
-        <v>87</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="E2">
-        <v>78</v>
+        <v>31.2</v>
       </c>
       <c r="F2">
-        <v>96</v>
+        <v>38.4</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>31.2</v>
       </c>
       <c r="H2">
         <f>SUM(B2:G2)</f>
-        <v>443</v>
+        <v>177.2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3338,26 +3353,26 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>29.6</v>
       </c>
       <c r="C3">
-        <v>74</v>
+        <v>29.6</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>18.8</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>87</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>10.4</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H6" si="0">SUM(B3:G3)</f>
-        <v>353</v>
+        <v>141.20000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3365,26 +3380,26 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>4.8</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>6.8</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>9.6</v>
       </c>
       <c r="E4">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>5.6</v>
       </c>
       <c r="G4">
-        <v>74</v>
+        <v>29.6</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>82.4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3392,26 +3407,26 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>7.6</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>6.8</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>48</v>
+        <v>19.2</v>
       </c>
       <c r="G5">
-        <v>72</v>
+        <v>28.8</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>271</v>
+        <v>108.39999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3419,26 +3434,26 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E6">
-        <v>51</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>10.4</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>105.19999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3452,7 +3467,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3480,7 +3495,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3489,31 +3504,31 @@
       </c>
       <c r="B2">
         <f>'UT1'!B2+'UT2'!B2+'UT3'!B2+HY!B2</f>
-        <v>271</v>
+        <v>69.8</v>
       </c>
       <c r="C2">
         <f>'UT1'!C2+'UT2'!C2+'UT3'!C2+HY!C2</f>
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <f>'UT1'!D2+'UT2'!D2+'UT3'!D2+HY!D2</f>
-        <v>275</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="E2">
         <f>'UT1'!E2+'UT2'!E2+'UT3'!E2+HY!E2</f>
-        <v>273</v>
+        <v>70.2</v>
       </c>
       <c r="F2">
         <f>'UT1'!F2+'UT2'!F2+'UT3'!F2+HY!F2</f>
-        <v>308</v>
+        <v>80.800000000000011</v>
       </c>
       <c r="G2">
         <f>'UT1'!G2+'UT2'!G2+'UT3'!G2+HY!G2</f>
-        <v>229</v>
+        <v>61.399999999999991</v>
       </c>
       <c r="H2">
         <f>SUM(B2:G2)</f>
-        <v>1515</v>
+        <v>391.59999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3522,31 +3537,31 @@
       </c>
       <c r="B3">
         <f>'UT1'!B3+'UT2'!B3+'UT3'!B3+HY!B3</f>
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="C3">
         <f>'UT1'!C3+'UT2'!C3+'UT3'!C3+HY!C3</f>
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="D3">
         <f>'UT1'!D3+'UT2'!D3+'UT3'!D3+HY!D3</f>
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <f>'UT1'!E3+'UT2'!E3+'UT3'!E3+HY!E3</f>
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <f>'UT1'!F3+'UT2'!F3+'UT3'!F3+HY!F3</f>
-        <v>348</v>
+        <v>87</v>
       </c>
       <c r="G3">
         <f>'UT1'!G3+'UT2'!G3+'UT3'!G3+HY!G3</f>
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H6" si="0">SUM(B3:G3)</f>
-        <v>1412</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3555,31 +3570,31 @@
       </c>
       <c r="B4">
         <f>'UT1'!B4+'UT2'!B4+'UT3'!B4+HY!B4</f>
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <f>'UT1'!C4+'UT2'!C4+'UT3'!C4+HY!C4</f>
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <f>'UT1'!D4+'UT2'!D4+'UT3'!D4+HY!D4</f>
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <f>'UT1'!E4+'UT2'!E4+'UT3'!E4+HY!E4</f>
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <f>'UT1'!F4+'UT2'!F4+'UT3'!F4+HY!F4</f>
-        <v>56</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="G4">
         <f>'UT1'!G4+'UT2'!G4+'UT3'!G4+HY!G4</f>
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>824</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3588,31 +3603,31 @@
       </c>
       <c r="B5">
         <f>'UT1'!B5+'UT2'!B5+'UT3'!B5+HY!B5</f>
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <f>'UT1'!C5+'UT2'!C5+'UT3'!C5+HY!C5</f>
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <f>'UT1'!D5+'UT2'!D5+'UT3'!D5+HY!D5</f>
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <f>'UT1'!E5+'UT2'!E5+'UT3'!E5+HY!E5</f>
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <f>'UT1'!F5+'UT2'!F5+'UT3'!F5+HY!F5</f>
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="G5">
         <f>'UT1'!G5+'UT2'!G5+'UT3'!G5+HY!G5</f>
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>1084</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3621,31 +3636,31 @@
       </c>
       <c r="B6">
         <f>'UT1'!B6+'UT2'!B6+'UT3'!B6+HY!B6</f>
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <f>'UT1'!C6+'UT2'!C6+'UT3'!C6+HY!C6</f>
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <f>'UT1'!D6+'UT2'!D6+'UT3'!D6+HY!D6</f>
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <f>'UT1'!E6+'UT2'!E6+'UT3'!E6+HY!E6</f>
-        <v>204</v>
+        <v>51</v>
       </c>
       <c r="F6">
         <f>'UT1'!F6+'UT2'!F6+'UT3'!F6+HY!F6</f>
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <f>'UT1'!G6+'UT2'!G6+'UT3'!G6+HY!G6</f>
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>1052</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3658,7 +3673,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3686,7 +3701,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3694,26 +3709,26 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>15.6</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>5.2</v>
       </c>
       <c r="D2">
-        <v>87</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E2">
-        <v>78</v>
+        <v>15.6</v>
       </c>
       <c r="F2">
-        <v>96</v>
+        <v>19.2</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>15.6</v>
       </c>
       <c r="H2">
         <f>SUM(B2:G2)</f>
-        <v>443</v>
+        <v>88.6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3721,26 +3736,26 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>14.8</v>
       </c>
       <c r="C3">
-        <v>74</v>
+        <v>14.8</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>9.4</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>87</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>5.2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H6" si="0">SUM(B3:G3)</f>
-        <v>353</v>
+        <v>70.600000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3748,26 +3763,26 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>4.8</v>
       </c>
       <c r="E4">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>2.8</v>
       </c>
       <c r="G4">
-        <v>74</v>
+        <v>14.8</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3775,26 +3790,26 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>48</v>
+        <v>9.6</v>
       </c>
       <c r="G5">
-        <v>72</v>
+        <v>14.4</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>271</v>
+        <v>54.199999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3802,30 +3817,31 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E6">
-        <v>51</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>5.2</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>52.599999999999994</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3834,7 +3850,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3862,7 +3878,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3870,26 +3886,26 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>15.6</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>5.2</v>
       </c>
       <c r="D2">
-        <v>87</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E2">
-        <v>78</v>
+        <v>15.6</v>
       </c>
       <c r="F2">
-        <v>96</v>
+        <v>19.2</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>15.6</v>
       </c>
       <c r="H2">
         <f>SUM(B2:G2)</f>
-        <v>443</v>
+        <v>88.6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3897,26 +3913,26 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>14.8</v>
       </c>
       <c r="C3">
-        <v>74</v>
+        <v>14.8</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>9.4</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>87</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>5.2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H6" si="0">SUM(B3:G3)</f>
-        <v>353</v>
+        <v>70.600000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3924,26 +3940,26 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>4.8</v>
       </c>
       <c r="E4">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>2.8</v>
       </c>
       <c r="G4">
-        <v>74</v>
+        <v>14.8</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3951,26 +3967,26 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>48</v>
+        <v>9.6</v>
       </c>
       <c r="G5">
-        <v>72</v>
+        <v>14.4</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>271</v>
+        <v>54.199999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3978,29 +3994,30 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E6">
-        <v>51</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>5.2</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>52.599999999999994</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>